--- a/Speedtest Streampipes.xlsx
+++ b/Speedtest Streampipes.xlsx
@@ -38,9 +38,6 @@
     <t>In StreamPipes angekommen</t>
   </si>
   <si>
-    <t>Verabreitung in der Anwendung</t>
-  </si>
-  <si>
     <t>In StreamPipes angekommen und gefiltert</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Verarbeitungszeit</t>
+  </si>
+  <si>
+    <t>Verarbeitung in der Anwendung</t>
   </si>
 </sst>
 </file>
@@ -69,12 +69,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,21 +95,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -145,6 +153,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Mittelwert in (ms)</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -192,7 +203,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -247,7 +258,7 @@
                   <c:v>In StreamPipes angekommen und gefiltert</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Verabreitung in der Anwendung</c:v>
+                  <c:v>Verarbeitung in der Anwendung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,7 +276,7 @@
                   <c:v>353.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.56</c:v>
+                  <c:v>188.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,7 +330,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -378,7 +389,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -405,10 +416,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{12BF07B7-CECC-457D-90D0-4EC4A377A18A}">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
@@ -997,15 +1039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>427024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160084</xdr:rowOff>
+      <xdr:colOff>24042</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>289252</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>75720</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1330,16 +1372,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568F1D2D-FA6B-4DC9-BADB-B1FA9A3AB68E}">
-  <dimension ref="A1:Y152"/>
+  <dimension ref="A1:AE152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
@@ -1348,23 +1390,23 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,28 +1417,45 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1507817930912</v>
       </c>
@@ -1404,7 +1463,7 @@
         <v>1507817931046</v>
       </c>
       <c r="C3">
-        <f>B3-A3</f>
+        <f t="shared" ref="C3:C34" si="0">B3-A3</f>
         <v>134</v>
       </c>
       <c r="D3">
@@ -1418,7 +1477,7 @@
         <v>1507818653046</v>
       </c>
       <c r="I3">
-        <f>H3-G3</f>
+        <f t="shared" ref="I3:I34" si="1">H3-G3</f>
         <v>339</v>
       </c>
       <c r="J3">
@@ -1426,14 +1485,31 @@
         <v>353.89</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="N3">
         <f>SUM(M:M)/COUNT(M:M)</f>
-        <v>133.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>188.7</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1507817930912</v>
       </c>
@@ -1441,7 +1517,7 @@
         <v>1507817931046</v>
       </c>
       <c r="C4">
-        <f>B4-A4</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="G4" s="3">
@@ -1451,14 +1527,31 @@
         <v>1507818653046</v>
       </c>
       <c r="I4">
-        <f>H4-G4</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="M4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1507817930912</v>
       </c>
@@ -1466,7 +1559,7 @@
         <v>1507817931046</v>
       </c>
       <c r="C5">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="G5" s="3">
@@ -1476,14 +1569,31 @@
         <v>1507818653046</v>
       </c>
       <c r="I5">
-        <f>H5-G5</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="M5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1507817930912</v>
       </c>
@@ -1491,7 +1601,7 @@
         <v>1507817931046</v>
       </c>
       <c r="C6">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="G6" s="3">
@@ -1501,14 +1611,31 @@
         <v>1507818653046</v>
       </c>
       <c r="I6">
-        <f>H6-G6</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="M6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1507817930912</v>
       </c>
@@ -1516,7 +1643,7 @@
         <v>1507817931046</v>
       </c>
       <c r="C7">
-        <f>B7-A7</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="G7" s="3">
@@ -1526,14 +1653,31 @@
         <v>1507818653046</v>
       </c>
       <c r="I7">
-        <f>H7-G7</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="M7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1507818023055</v>
       </c>
@@ -1541,7 +1685,7 @@
         <v>1507818023246</v>
       </c>
       <c r="C8">
-        <f>B8-A8</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="G8" s="3">
@@ -1551,14 +1695,31 @@
         <v>1507818663446</v>
       </c>
       <c r="I8">
-        <f>H8-G8</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="M8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1507818023055</v>
       </c>
@@ -1566,7 +1727,7 @@
         <v>1507818023246</v>
       </c>
       <c r="C9">
-        <f>B9-A9</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="G9" s="3">
@@ -1576,25 +1737,31 @@
         <v>1507818663446</v>
       </c>
       <c r="I9">
-        <f>H9-G9</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="M9">
-        <v>111</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1507818023055</v>
       </c>
@@ -1602,7 +1769,7 @@
         <v>1507818023246</v>
       </c>
       <c r="C10">
-        <f>B10-A10</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="G10" s="3">
@@ -1612,25 +1779,31 @@
         <v>1507818663446</v>
       </c>
       <c r="I10">
-        <f>H10-G10</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="M10">
-        <v>153</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1507818023055</v>
       </c>
@@ -1638,7 +1811,7 @@
         <v>1507818023246</v>
       </c>
       <c r="C11">
-        <f>B11-A11</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="G11" s="3">
@@ -1648,25 +1821,31 @@
         <v>1507818663446</v>
       </c>
       <c r="I11">
-        <f>H11-G11</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="M11">
-        <v>96</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1507818023055</v>
       </c>
@@ -1674,7 +1853,7 @@
         <v>1507818023246</v>
       </c>
       <c r="C12">
-        <f>B12-A12</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="G12" s="3">
@@ -1684,25 +1863,31 @@
         <v>1507818663446</v>
       </c>
       <c r="I12">
-        <f>H12-G12</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="M12">
-        <v>164</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1507818074416</v>
       </c>
@@ -1710,7 +1895,7 @@
         <v>1507818074546</v>
       </c>
       <c r="C13">
-        <f>B13-A13</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="G13" s="3">
@@ -1720,25 +1905,31 @@
         <v>1507818673546</v>
       </c>
       <c r="I13">
-        <f>H13-G13</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M13">
-        <v>106</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1507818074416</v>
       </c>
@@ -1746,7 +1937,7 @@
         <v>1507818074546</v>
       </c>
       <c r="C14">
-        <f>B14-A14</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="G14" s="3">
@@ -1756,25 +1947,31 @@
         <v>1507818673546</v>
       </c>
       <c r="I14">
-        <f>H14-G14</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M14">
-        <v>94</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1507818074416</v>
       </c>
@@ -1782,7 +1979,7 @@
         <v>1507818074646</v>
       </c>
       <c r="C15">
-        <f>B15-A15</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="G15" s="3">
@@ -1792,25 +1989,31 @@
         <v>1507818673546</v>
       </c>
       <c r="I15">
-        <f>H15-G15</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M15">
-        <v>168</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1507818074416</v>
       </c>
@@ -1818,7 +2021,7 @@
         <v>1507818074646</v>
       </c>
       <c r="C16">
-        <f>B16-A16</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="G16" s="3">
@@ -1828,25 +2031,31 @@
         <v>1507818673546</v>
       </c>
       <c r="I16">
-        <f>H16-G16</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M16">
-        <v>163</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1507818074416</v>
       </c>
@@ -1854,7 +2063,7 @@
         <v>1507818074646</v>
       </c>
       <c r="C17">
-        <f>B17-A17</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="G17" s="3">
@@ -1864,25 +2073,31 @@
         <v>1507818673546</v>
       </c>
       <c r="I17">
-        <f>H17-G17</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M17">
-        <v>93</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1507818084663</v>
       </c>
@@ -1890,7 +2105,7 @@
         <v>1507818084846</v>
       </c>
       <c r="C18">
-        <f>B18-A18</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="G18" s="3">
@@ -1900,25 +2115,31 @@
         <v>1507818694147</v>
       </c>
       <c r="I18">
-        <f>H18-G18</f>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="M18">
-        <v>170</v>
-      </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1507818084663</v>
       </c>
@@ -1926,7 +2147,7 @@
         <v>1507818084946</v>
       </c>
       <c r="C19">
-        <f>B19-A19</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="G19" s="3">
@@ -1936,25 +2157,31 @@
         <v>1507818694147</v>
       </c>
       <c r="I19">
-        <f>H19-G19</f>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="M19">
-        <v>171</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1507818084663</v>
       </c>
@@ -1962,7 +2189,7 @@
         <v>1507818084946</v>
       </c>
       <c r="C20">
-        <f>B20-A20</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="G20" s="3">
@@ -1972,25 +2199,31 @@
         <v>1507818694147</v>
       </c>
       <c r="I20">
-        <f>H20-G20</f>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="M20">
-        <v>83</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1507818084663</v>
       </c>
@@ -1998,7 +2231,7 @@
         <v>1507818084946</v>
       </c>
       <c r="C21">
-        <f>B21-A21</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="G21" s="3">
@@ -2008,25 +2241,31 @@
         <v>1507818694147</v>
       </c>
       <c r="I21">
-        <f>H21-G21</f>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1507818084663</v>
       </c>
@@ -2034,7 +2273,7 @@
         <v>1507818084946</v>
       </c>
       <c r="C22">
-        <f>B22-A22</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="G22" s="3">
@@ -2044,25 +2283,31 @@
         <v>1507818694147</v>
       </c>
       <c r="I22">
-        <f>H22-G22</f>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="M22">
-        <v>105</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1507818094970</v>
       </c>
@@ -2070,7 +2315,7 @@
         <v>1507818095346</v>
       </c>
       <c r="C23">
-        <f>B23-A23</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="G23" s="3">
@@ -2080,25 +2325,31 @@
         <v>1507818704446</v>
       </c>
       <c r="I23">
-        <f>H23-G23</f>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="M23">
-        <v>145</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1507818094970</v>
       </c>
@@ -2106,7 +2357,7 @@
         <v>1507818095346</v>
       </c>
       <c r="C24">
-        <f>B24-A24</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="G24" s="3">
@@ -2116,25 +2367,31 @@
         <v>1507818704446</v>
       </c>
       <c r="I24">
-        <f>H24-G24</f>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="M24">
-        <v>98</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1507818094970</v>
       </c>
@@ -2142,7 +2399,7 @@
         <v>1507818095346</v>
       </c>
       <c r="C25">
-        <f>B25-A25</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="G25" s="3">
@@ -2152,25 +2409,31 @@
         <v>1507818704446</v>
       </c>
       <c r="I25">
-        <f>H25-G25</f>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="M25">
-        <v>115</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1507818094970</v>
       </c>
@@ -2178,7 +2441,7 @@
         <v>1507818095346</v>
       </c>
       <c r="C26">
-        <f>B26-A26</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="G26" s="3">
@@ -2188,25 +2451,31 @@
         <v>1507818704446</v>
       </c>
       <c r="I26">
-        <f>H26-G26</f>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="M26">
-        <v>80</v>
-      </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1507818094970</v>
       </c>
@@ -2214,7 +2483,7 @@
         <v>1507818095346</v>
       </c>
       <c r="C27">
-        <f>B27-A27</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="G27" s="3">
@@ -2224,25 +2493,31 @@
         <v>1507818704446</v>
       </c>
       <c r="I27">
-        <f>H27-G27</f>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="M27">
-        <v>100</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1507818343614</v>
       </c>
@@ -2250,7 +2525,7 @@
         <v>1507818344046</v>
       </c>
       <c r="C28">
-        <f>B28-A28</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="G28" s="3">
@@ -2260,25 +2535,31 @@
         <v>1507818714846</v>
       </c>
       <c r="I28">
-        <f>H28-G28</f>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="M28">
-        <v>106</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1507818343614</v>
       </c>
@@ -2286,7 +2567,7 @@
         <v>1507818344046</v>
       </c>
       <c r="C29">
-        <f>B29-A29</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="G29" s="3">
@@ -2296,25 +2577,31 @@
         <v>1507818714846</v>
       </c>
       <c r="I29">
-        <f>H29-G29</f>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="M29">
-        <v>101</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1507818343614</v>
       </c>
@@ -2322,7 +2609,7 @@
         <v>1507818344046</v>
       </c>
       <c r="C30">
-        <f>B30-A30</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="G30" s="3">
@@ -2332,25 +2619,31 @@
         <v>1507818714846</v>
       </c>
       <c r="I30">
-        <f>H30-G30</f>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="M30">
-        <v>169</v>
-      </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1507818343614</v>
       </c>
@@ -2358,7 +2651,7 @@
         <v>1507818344046</v>
       </c>
       <c r="C31">
-        <f>B31-A31</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="G31" s="3">
@@ -2368,25 +2661,25 @@
         <v>1507818714846</v>
       </c>
       <c r="I31">
-        <f>H31-G31</f>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="M31">
-        <v>97</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1507818343614</v>
       </c>
@@ -2394,7 +2687,7 @@
         <v>1507818344046</v>
       </c>
       <c r="C32">
-        <f>B32-A32</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="G32" s="3">
@@ -2404,23 +2697,23 @@
         <v>1507818714846</v>
       </c>
       <c r="I32">
-        <f>H32-G32</f>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="M32">
-        <v>97</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2430,7 +2723,7 @@
         <v>1507818364546</v>
       </c>
       <c r="C33">
-        <f>B33-A33</f>
+        <f t="shared" si="0"/>
         <v>161</v>
       </c>
       <c r="G33" s="3">
@@ -2440,23 +2733,23 @@
         <v>1507818725047</v>
       </c>
       <c r="I33">
-        <f>H33-G33</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="M33">
-        <v>118</v>
-      </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2466,7 +2759,7 @@
         <v>1507818364546</v>
       </c>
       <c r="C34">
-        <f>B34-A34</f>
+        <f t="shared" si="0"/>
         <v>161</v>
       </c>
       <c r="G34" s="3">
@@ -2476,23 +2769,23 @@
         <v>1507818725047</v>
       </c>
       <c r="I34">
-        <f>H34-G34</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="M34">
-        <v>113</v>
-      </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -2502,7 +2795,7 @@
         <v>1507818364546</v>
       </c>
       <c r="C35">
-        <f>B35-A35</f>
+        <f t="shared" ref="C35:C66" si="2">B35-A35</f>
         <v>161</v>
       </c>
       <c r="G35" s="3">
@@ -2512,11 +2805,11 @@
         <v>1507818725047</v>
       </c>
       <c r="I35">
-        <f>H35-G35</f>
+        <f t="shared" ref="I35:I66" si="3">H35-G35</f>
         <v>218</v>
       </c>
       <c r="M35">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -2527,7 +2820,7 @@
         <v>1507818364546</v>
       </c>
       <c r="C36">
-        <f>B36-A36</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="G36" s="3">
@@ -2537,11 +2830,11 @@
         <v>1507818725047</v>
       </c>
       <c r="I36">
-        <f>H36-G36</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="M36">
-        <v>312</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -2552,7 +2845,7 @@
         <v>1507818364546</v>
       </c>
       <c r="C37">
-        <f>B37-A37</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="G37" s="3">
@@ -2562,11 +2855,11 @@
         <v>1507818725047</v>
       </c>
       <c r="I37">
-        <f>H37-G37</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="M37">
-        <v>111</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -2577,7 +2870,7 @@
         <v>1507818374946</v>
       </c>
       <c r="C38">
-        <f>B38-A38</f>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="G38" s="3">
@@ -2587,11 +2880,11 @@
         <v>1507818735346</v>
       </c>
       <c r="I38">
-        <f>H38-G38</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="M38">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -2602,7 +2895,7 @@
         <v>1507818374946</v>
       </c>
       <c r="C39">
-        <f>B39-A39</f>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="G39" s="3">
@@ -2612,11 +2905,11 @@
         <v>1507818735346</v>
       </c>
       <c r="I39">
-        <f>H39-G39</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="M39">
-        <v>175</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -2627,7 +2920,7 @@
         <v>1507818374946</v>
       </c>
       <c r="C40">
-        <f>B40-A40</f>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="G40" s="3">
@@ -2637,11 +2930,11 @@
         <v>1507818735346</v>
       </c>
       <c r="I40">
-        <f>H40-G40</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="M40">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -2652,7 +2945,7 @@
         <v>1507818374946</v>
       </c>
       <c r="C41">
-        <f>B41-A41</f>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="G41" s="3">
@@ -2662,11 +2955,11 @@
         <v>1507818735346</v>
       </c>
       <c r="I41">
-        <f>H41-G41</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="M41">
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -2677,7 +2970,7 @@
         <v>1507818374946</v>
       </c>
       <c r="C42">
-        <f>B42-A42</f>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="G42" s="3">
@@ -2687,11 +2980,11 @@
         <v>1507818735346</v>
       </c>
       <c r="I42">
-        <f>H42-G42</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="M42">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -2702,7 +2995,7 @@
         <v>1507818385146</v>
       </c>
       <c r="C43">
-        <f>B43-A43</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="G43" s="3">
@@ -2712,11 +3005,11 @@
         <v>1507818745646</v>
       </c>
       <c r="I43">
-        <f>H43-G43</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="M43">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -2727,7 +3020,7 @@
         <v>1507818385146</v>
       </c>
       <c r="C44">
-        <f>B44-A44</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="G44" s="3">
@@ -2737,11 +3030,11 @@
         <v>1507818745646</v>
       </c>
       <c r="I44">
-        <f>H44-G44</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="M44">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -2752,7 +3045,7 @@
         <v>1507818385246</v>
       </c>
       <c r="C45">
-        <f>B45-A45</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G45" s="3">
@@ -2762,11 +3055,11 @@
         <v>1507818745646</v>
       </c>
       <c r="I45">
-        <f>H45-G45</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="M45">
-        <v>121</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -2777,7 +3070,7 @@
         <v>1507818385246</v>
       </c>
       <c r="C46">
-        <f>B46-A46</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G46" s="3">
@@ -2787,11 +3080,11 @@
         <v>1507818745646</v>
       </c>
       <c r="I46">
-        <f>H46-G46</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="M46">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -2802,7 +3095,7 @@
         <v>1507818385246</v>
       </c>
       <c r="C47">
-        <f>B47-A47</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G47" s="3">
@@ -2812,11 +3105,11 @@
         <v>1507818745646</v>
       </c>
       <c r="I47">
-        <f>H47-G47</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="M47">
-        <v>89</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -2827,7 +3120,7 @@
         <v>1507818395446</v>
       </c>
       <c r="C48">
-        <f>B48-A48</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G48" s="3">
@@ -2837,11 +3130,11 @@
         <v>1507818756046</v>
       </c>
       <c r="I48">
-        <f>H48-G48</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="M48">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2852,7 +3145,7 @@
         <v>1507818395446</v>
       </c>
       <c r="C49">
-        <f>B49-A49</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G49" s="3">
@@ -2862,11 +3155,11 @@
         <v>1507818756046</v>
       </c>
       <c r="I49">
-        <f>H49-G49</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="M49">
-        <v>107</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,7 +3170,7 @@
         <v>1507818395446</v>
       </c>
       <c r="C50">
-        <f>B50-A50</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G50" s="3">
@@ -2887,11 +3180,11 @@
         <v>1507818756046</v>
       </c>
       <c r="I50">
-        <f>H50-G50</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="M50">
-        <v>109</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2902,7 +3195,7 @@
         <v>1507818395446</v>
       </c>
       <c r="C51">
-        <f>B51-A51</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G51" s="3">
@@ -2912,11 +3205,11 @@
         <v>1507818756046</v>
       </c>
       <c r="I51">
-        <f>H51-G51</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="M51">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,7 +3220,7 @@
         <v>1507818395446</v>
       </c>
       <c r="C52">
-        <f>B52-A52</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G52" s="3">
@@ -2937,11 +3230,11 @@
         <v>1507818756046</v>
       </c>
       <c r="I52">
-        <f>H52-G52</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="M52">
-        <v>111</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2952,7 +3245,7 @@
         <v>1507819516247</v>
       </c>
       <c r="C53">
-        <f>B53-A53</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G53" s="3">
@@ -2962,11 +3255,11 @@
         <v>1507819732846</v>
       </c>
       <c r="I53">
-        <f>H53-G53</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="M53">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2977,7 +3270,7 @@
         <v>1507819516247</v>
       </c>
       <c r="C54">
-        <f>B54-A54</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G54" s="3">
@@ -2987,11 +3280,11 @@
         <v>1507819732846</v>
       </c>
       <c r="I54">
-        <f>H54-G54</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="M54">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3002,7 +3295,7 @@
         <v>1507819516247</v>
       </c>
       <c r="C55">
-        <f>B55-A55</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G55" s="3">
@@ -3012,11 +3305,11 @@
         <v>1507819732846</v>
       </c>
       <c r="I55">
-        <f>H55-G55</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="M55">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3027,7 +3320,7 @@
         <v>1507819516247</v>
       </c>
       <c r="C56">
-        <f>B56-A56</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G56" s="3">
@@ -3037,11 +3330,11 @@
         <v>1507819732947</v>
       </c>
       <c r="I56">
-        <f>H56-G56</f>
+        <f t="shared" si="3"/>
         <v>566</v>
       </c>
       <c r="M56">
-        <v>430</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3052,7 +3345,7 @@
         <v>1507819516247</v>
       </c>
       <c r="C57">
-        <f>B57-A57</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G57" s="3">
@@ -3062,11 +3355,11 @@
         <v>1507819732947</v>
       </c>
       <c r="I57">
-        <f>H57-G57</f>
+        <f t="shared" si="3"/>
         <v>566</v>
       </c>
       <c r="M57">
-        <v>93</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3077,7 +3370,7 @@
         <v>1507819526947</v>
       </c>
       <c r="C58">
-        <f>B58-A58</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="G58" s="3">
@@ -3087,11 +3380,11 @@
         <v>1507819743047</v>
       </c>
       <c r="I58">
-        <f>H58-G58</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="M58">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3102,7 +3395,7 @@
         <v>1507819526947</v>
       </c>
       <c r="C59">
-        <f>B59-A59</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="G59" s="3">
@@ -3112,11 +3405,11 @@
         <v>1507819743047</v>
       </c>
       <c r="I59">
-        <f>H59-G59</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="M59">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3127,7 +3420,7 @@
         <v>1507819526947</v>
       </c>
       <c r="C60">
-        <f>B60-A60</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="G60" s="3">
@@ -3137,11 +3430,11 @@
         <v>1507819743047</v>
       </c>
       <c r="I60">
-        <f>H60-G60</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="M60">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3152,7 +3445,7 @@
         <v>1507819526947</v>
       </c>
       <c r="C61">
-        <f>B61-A61</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="G61" s="3">
@@ -3162,11 +3455,11 @@
         <v>1507819743147</v>
       </c>
       <c r="I61">
-        <f>H61-G61</f>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="M61">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3177,7 +3470,7 @@
         <v>1507819526947</v>
       </c>
       <c r="C62">
-        <f>B62-A62</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="G62" s="3">
@@ -3187,11 +3480,11 @@
         <v>1507819743147</v>
       </c>
       <c r="I62">
-        <f>H62-G62</f>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="M62">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3202,7 +3495,7 @@
         <v>1507819537150</v>
       </c>
       <c r="C63">
-        <f>B63-A63</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G63" s="3">
@@ -3212,11 +3505,11 @@
         <v>1507819753347</v>
       </c>
       <c r="I63">
-        <f>H63-G63</f>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="M63">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3227,7 +3520,7 @@
         <v>1507819537150</v>
       </c>
       <c r="C64">
-        <f>B64-A64</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G64" s="3">
@@ -3237,11 +3530,11 @@
         <v>1507819753347</v>
       </c>
       <c r="I64">
-        <f>H64-G64</f>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="M64">
-        <v>92</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,7 +3545,7 @@
         <v>1507819537150</v>
       </c>
       <c r="C65">
-        <f>B65-A65</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G65" s="3">
@@ -3262,11 +3555,11 @@
         <v>1507819753347</v>
       </c>
       <c r="I65">
-        <f>H65-G65</f>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="M65">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3277,7 +3570,7 @@
         <v>1507819537150</v>
       </c>
       <c r="C66">
-        <f>B66-A66</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G66" s="3">
@@ -3287,11 +3580,11 @@
         <v>1507819753347</v>
       </c>
       <c r="I66">
-        <f>H66-G66</f>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="M66">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3302,7 +3595,7 @@
         <v>1507819537246</v>
       </c>
       <c r="C67">
-        <f>B67-A67</f>
+        <f t="shared" ref="C67:C98" si="4">B67-A67</f>
         <v>265</v>
       </c>
       <c r="G67" s="3">
@@ -3312,11 +3605,11 @@
         <v>1507819753347</v>
       </c>
       <c r="I67">
-        <f>H67-G67</f>
+        <f t="shared" ref="I67:I98" si="5">H67-G67</f>
         <v>312</v>
       </c>
       <c r="M67">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3327,7 +3620,7 @@
         <v>1507819557646</v>
       </c>
       <c r="C68">
-        <f>B68-A68</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="G68" s="3">
@@ -3337,11 +3630,11 @@
         <v>1507819763546</v>
       </c>
       <c r="I68">
-        <f>H68-G68</f>
+        <f t="shared" si="5"/>
         <v>226</v>
       </c>
       <c r="M68">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,7 +3645,7 @@
         <v>1507819557748</v>
       </c>
       <c r="C69">
-        <f>B69-A69</f>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="G69" s="3">
@@ -3362,11 +3655,11 @@
         <v>1507819763646</v>
       </c>
       <c r="I69">
-        <f>H69-G69</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="M69">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3377,7 +3670,7 @@
         <v>1507819557748</v>
       </c>
       <c r="C70">
-        <f>B70-A70</f>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="G70" s="3">
@@ -3387,11 +3680,11 @@
         <v>1507819763646</v>
       </c>
       <c r="I70">
-        <f>H70-G70</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="M70">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3402,7 +3695,7 @@
         <v>1507819557748</v>
       </c>
       <c r="C71">
-        <f>B71-A71</f>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="G71" s="3">
@@ -3412,11 +3705,11 @@
         <v>1507819763646</v>
       </c>
       <c r="I71">
-        <f>H71-G71</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="M71">
-        <v>129</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3427,7 +3720,7 @@
         <v>1507819557748</v>
       </c>
       <c r="C72">
-        <f>B72-A72</f>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="G72" s="3">
@@ -3437,11 +3730,11 @@
         <v>1507819763646</v>
       </c>
       <c r="I72">
-        <f>H72-G72</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="M72">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3452,7 +3745,7 @@
         <v>1507819567947</v>
       </c>
       <c r="C73">
-        <f>B73-A73</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="G73" s="3">
@@ -3462,11 +3755,11 @@
         <v>1507819773947</v>
       </c>
       <c r="I73">
-        <f>H73-G73</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="M73">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3477,7 +3770,7 @@
         <v>1507819567947</v>
       </c>
       <c r="C74">
-        <f>B74-A74</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="G74" s="3">
@@ -3487,11 +3780,11 @@
         <v>1507819773947</v>
       </c>
       <c r="I74">
-        <f>H74-G74</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="M74">
-        <v>122</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3502,7 +3795,7 @@
         <v>1507819567947</v>
       </c>
       <c r="C75">
-        <f>B75-A75</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="G75" s="3">
@@ -3512,11 +3805,11 @@
         <v>1507819773947</v>
       </c>
       <c r="I75">
-        <f>H75-G75</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="M75">
-        <v>189</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3527,7 +3820,7 @@
         <v>1507819567947</v>
       </c>
       <c r="C76">
-        <f>B76-A76</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="G76" s="3">
@@ -3537,11 +3830,11 @@
         <v>1507819773947</v>
       </c>
       <c r="I76">
-        <f>H76-G76</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="M76">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3552,7 +3845,7 @@
         <v>1507819567947</v>
       </c>
       <c r="C77">
-        <f>B77-A77</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="G77" s="3">
@@ -3562,11 +3855,11 @@
         <v>1507819773947</v>
       </c>
       <c r="I77">
-        <f>H77-G77</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="M77">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3577,7 +3870,7 @@
         <v>1507819578247</v>
       </c>
       <c r="C78">
-        <f>B78-A78</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="G78" s="3">
@@ -3587,11 +3880,11 @@
         <v>1507819784246</v>
       </c>
       <c r="I78">
-        <f>H78-G78</f>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="M78">
-        <v>184</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3602,7 +3895,7 @@
         <v>1507819578247</v>
       </c>
       <c r="C79">
-        <f>B79-A79</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="G79" s="3">
@@ -3612,11 +3905,11 @@
         <v>1507819784246</v>
       </c>
       <c r="I79">
-        <f>H79-G79</f>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="M79">
-        <v>105</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3627,7 +3920,7 @@
         <v>1507819578247</v>
       </c>
       <c r="C80">
-        <f>B80-A80</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="G80" s="3">
@@ -3637,11 +3930,11 @@
         <v>1507819784246</v>
       </c>
       <c r="I80">
-        <f>H80-G80</f>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="M80">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3652,7 +3945,7 @@
         <v>1507819578247</v>
       </c>
       <c r="C81">
-        <f>B81-A81</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="G81" s="3">
@@ -3662,11 +3955,11 @@
         <v>1507819784246</v>
       </c>
       <c r="I81">
-        <f>H81-G81</f>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="M81">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3677,7 +3970,7 @@
         <v>1507819578247</v>
       </c>
       <c r="C82">
-        <f>B82-A82</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="G82" s="3">
@@ -3687,11 +3980,11 @@
         <v>1507819784346</v>
       </c>
       <c r="I82">
-        <f>H82-G82</f>
+        <f t="shared" si="5"/>
         <v>505</v>
       </c>
       <c r="M82">
-        <v>271</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3702,7 +3995,7 @@
         <v>1507819588546</v>
       </c>
       <c r="C83">
-        <f>B83-A83</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G83" s="3">
@@ -3712,11 +4005,11 @@
         <v>1507819794447</v>
       </c>
       <c r="I83">
-        <f>H83-G83</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="M83">
-        <v>467</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3727,7 +4020,7 @@
         <v>1507819588546</v>
       </c>
       <c r="C84">
-        <f>B84-A84</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G84" s="3">
@@ -3737,11 +4030,11 @@
         <v>1507819794447</v>
       </c>
       <c r="I84">
-        <f>H84-G84</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="M84">
-        <v>111</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3752,7 +4045,7 @@
         <v>1507819588546</v>
       </c>
       <c r="C85">
-        <f>B85-A85</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G85" s="3">
@@ -3762,11 +4055,11 @@
         <v>1507819794447</v>
       </c>
       <c r="I85">
-        <f>H85-G85</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="M85">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3777,7 +4070,7 @@
         <v>1507819588546</v>
       </c>
       <c r="C86">
-        <f>B86-A86</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G86" s="3">
@@ -3787,11 +4080,11 @@
         <v>1507819794447</v>
       </c>
       <c r="I86">
-        <f>H86-G86</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="M86">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,7 +4095,7 @@
         <v>1507819588546</v>
       </c>
       <c r="C87">
-        <f>B87-A87</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G87" s="3">
@@ -3812,11 +4105,11 @@
         <v>1507819794447</v>
       </c>
       <c r="I87">
-        <f>H87-G87</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="M87">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3827,7 +4120,7 @@
         <v>1507819598946</v>
       </c>
       <c r="C88">
-        <f>B88-A88</f>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="G88" s="3">
@@ -3837,11 +4130,11 @@
         <v>1507819804547</v>
       </c>
       <c r="I88">
-        <f>H88-G88</f>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="M88">
-        <v>96</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3852,7 +4145,7 @@
         <v>1507819598946</v>
       </c>
       <c r="C89">
-        <f>B89-A89</f>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="G89" s="3">
@@ -3862,11 +4155,11 @@
         <v>1507819804547</v>
       </c>
       <c r="I89">
-        <f>H89-G89</f>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="M89">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3877,7 +4170,7 @@
         <v>1507819598946</v>
       </c>
       <c r="C90">
-        <f>B90-A90</f>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="G90" s="3">
@@ -3887,11 +4180,11 @@
         <v>1507819804646</v>
       </c>
       <c r="I90">
-        <f>H90-G90</f>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="M90">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3902,7 +4195,7 @@
         <v>1507819598946</v>
       </c>
       <c r="C91">
-        <f>B91-A91</f>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="G91" s="3">
@@ -3912,11 +4205,11 @@
         <v>1507819804646</v>
       </c>
       <c r="I91">
-        <f>H91-G91</f>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="M91">
-        <v>84</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3927,7 +4220,7 @@
         <v>1507819598946</v>
       </c>
       <c r="C92">
-        <f>B92-A92</f>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="G92" s="3">
@@ -3937,11 +4230,11 @@
         <v>1507819804646</v>
       </c>
       <c r="I92">
-        <f>H92-G92</f>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="M92">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3952,7 +4245,7 @@
         <v>1507819609246</v>
       </c>
       <c r="C93">
-        <f>B93-A93</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G93" s="3">
@@ -3962,11 +4255,11 @@
         <v>1507819814946</v>
       </c>
       <c r="I93">
-        <f>H93-G93</f>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="M93">
-        <v>107</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,7 +4270,7 @@
         <v>1507819609246</v>
       </c>
       <c r="C94">
-        <f>B94-A94</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G94" s="3">
@@ -3987,11 +4280,11 @@
         <v>1507819814946</v>
       </c>
       <c r="I94">
-        <f>H94-G94</f>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="M94">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4002,7 +4295,7 @@
         <v>1507819609246</v>
       </c>
       <c r="C95">
-        <f>B95-A95</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G95" s="3">
@@ -4012,11 +4305,11 @@
         <v>1507819814946</v>
       </c>
       <c r="I95">
-        <f>H95-G95</f>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="M95">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,7 +4320,7 @@
         <v>1507819609246</v>
       </c>
       <c r="C96">
-        <f>B96-A96</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G96" s="3">
@@ -4037,11 +4330,11 @@
         <v>1507819814946</v>
       </c>
       <c r="I96">
-        <f>H96-G96</f>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="M96">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4052,7 +4345,7 @@
         <v>1507819609246</v>
       </c>
       <c r="C97">
-        <f>B97-A97</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="G97" s="3">
@@ -4062,11 +4355,11 @@
         <v>1507819814946</v>
       </c>
       <c r="I97">
-        <f>H97-G97</f>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="M97">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4077,7 +4370,7 @@
         <v>1507819619547</v>
       </c>
       <c r="C98">
-        <f>B98-A98</f>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="G98" s="3">
@@ -4087,11 +4380,11 @@
         <v>1507819825247</v>
       </c>
       <c r="I98">
-        <f>H98-G98</f>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="M98">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4102,7 +4395,7 @@
         <v>1507819619547</v>
       </c>
       <c r="C99">
-        <f>B99-A99</f>
+        <f t="shared" ref="C99:C102" si="6">B99-A99</f>
         <v>238</v>
       </c>
       <c r="G99" s="3">
@@ -4112,11 +4405,11 @@
         <v>1507819825247</v>
       </c>
       <c r="I99">
-        <f>H99-G99</f>
+        <f t="shared" ref="I99:I102" si="7">H99-G99</f>
         <v>315</v>
       </c>
       <c r="M99">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4127,7 +4420,7 @@
         <v>1507819619547</v>
       </c>
       <c r="C100">
-        <f>B100-A100</f>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="G100" s="3">
@@ -4137,11 +4430,11 @@
         <v>1507819825247</v>
       </c>
       <c r="I100">
-        <f>H100-G100</f>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
       <c r="M100">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,7 +4445,7 @@
         <v>1507819619547</v>
       </c>
       <c r="C101">
-        <f>B101-A101</f>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="G101" s="3">
@@ -4162,11 +4455,11 @@
         <v>1507819825247</v>
       </c>
       <c r="I101">
-        <f>H101-G101</f>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
       <c r="M101">
-        <v>138</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4177,7 +4470,7 @@
         <v>1507819619547</v>
       </c>
       <c r="C102">
-        <f>B102-A102</f>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="G102" s="3">
@@ -4187,11 +4480,11 @@
         <v>1507819825247</v>
       </c>
       <c r="I102">
-        <f>H102-G102</f>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
       <c r="M102">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
